--- a/Eastern_Massachusetts_net.xlsx
+++ b/Eastern_Massachusetts_net.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE10DFA7-F1CB-49E4-8204-9300E0E56431}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008B0A95-C793-416E-8AC4-9B0E84314626}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>&lt;NUMBER OF ZONES&gt; 74</t>
   </si>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>one-side_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental capacity </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,43 +426,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L345"/>
+  <dimension ref="A1:M345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M281" sqref="M281"/>
+      <selection activeCell="R91" sqref="R91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>5</v>
       </c>
@@ -489,8 +494,11 @@
       <c r="L7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
         <v>15</v>
@@ -526,7 +534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -564,7 +572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -599,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -637,7 +645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -672,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -710,7 +718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -745,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7</v>
       </c>
@@ -783,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8</v>
       </c>
@@ -1986,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>41</v>
       </c>
@@ -2024,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>42</v>
       </c>
@@ -2059,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>43</v>
       </c>
@@ -2097,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>44</v>
       </c>
@@ -2132,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>45</v>
       </c>
@@ -2170,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>46</v>
       </c>
@@ -2205,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>47</v>
       </c>
@@ -2243,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>48</v>
       </c>
@@ -2278,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>49</v>
       </c>
@@ -2316,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>50</v>
       </c>
@@ -2351,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>51</v>
       </c>
@@ -2388,8 +2396,11 @@
       <c r="L59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M59">
+        <v>18459</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>52</v>
       </c>
@@ -2424,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>53</v>
       </c>
@@ -2461,8 +2472,11 @@
       <c r="L61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M61">
+        <v>34596</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>54</v>
       </c>
@@ -2497,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>55</v>
       </c>
@@ -2532,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>56</v>
       </c>
@@ -2569,8 +2583,11 @@
       <c r="L64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M64">
+        <v>26855</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>57</v>
       </c>
@@ -2607,8 +2624,11 @@
       <c r="L65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M65">
+        <v>19875</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>58</v>
       </c>
@@ -2643,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>59</v>
       </c>
@@ -2680,8 +2700,11 @@
       <c r="L67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M67">
+        <v>24531</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>60</v>
       </c>
@@ -2716,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>61</v>
       </c>
@@ -2753,8 +2776,11 @@
       <c r="L69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M69">
+        <v>26581</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>62</v>
       </c>
@@ -2789,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>63</v>
       </c>
@@ -2824,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>64</v>
       </c>
@@ -2861,8 +2887,11 @@
       <c r="L72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M72">
+        <v>36984</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>65</v>
       </c>
@@ -2899,8 +2928,11 @@
       <c r="L73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M73">
+        <v>17495</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>66</v>
       </c>
@@ -2935,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>67</v>
       </c>
@@ -2972,8 +3004,11 @@
       <c r="L75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M75">
+        <v>45965</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>68</v>
       </c>
@@ -3008,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>69</v>
       </c>
@@ -3046,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>70</v>
       </c>
@@ -3081,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>71</v>
       </c>
@@ -3119,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>72</v>
       </c>
@@ -3154,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>73</v>
       </c>
@@ -3189,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>74</v>
       </c>
@@ -3227,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>75</v>
       </c>
@@ -3265,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>76</v>
       </c>
@@ -3300,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>77</v>
       </c>
@@ -3337,8 +3372,11 @@
       <c r="L85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M85">
+        <v>54596</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>78</v>
       </c>
@@ -3373,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>79</v>
       </c>
@@ -3411,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>80</v>
       </c>
@@ -3446,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>81</v>
       </c>
@@ -3483,8 +3521,11 @@
       <c r="L89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M89">
+        <v>24596</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>82</v>
       </c>
@@ -3519,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>83</v>
       </c>
@@ -3556,8 +3597,11 @@
       <c r="L91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M91">
+        <v>24596</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>84</v>
       </c>
@@ -3592,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>85</v>
       </c>
@@ -3630,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>86</v>
       </c>
@@ -3665,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>87</v>
       </c>
@@ -3703,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>88</v>
       </c>
@@ -3738,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>89</v>
       </c>
@@ -3775,8 +3819,11 @@
       <c r="L97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M97">
+        <v>14533</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>90</v>
       </c>
@@ -3811,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>91</v>
       </c>
@@ -3846,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>92</v>
       </c>
@@ -3884,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>93</v>
       </c>
@@ -3919,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>94</v>
       </c>
@@ -3956,8 +4003,11 @@
       <c r="L102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M102">
+        <v>34588</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>95</v>
       </c>
@@ -3994,8 +4044,11 @@
       <c r="L103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M103">
+        <v>14596</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>96</v>
       </c>
@@ -4030,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>97</v>
       </c>
@@ -4065,7 +4118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>98</v>
       </c>
@@ -4103,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>99</v>
       </c>
@@ -4140,8 +4193,11 @@
       <c r="L107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M107">
+        <v>45966</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>100</v>
       </c>
@@ -4176,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>101</v>
       </c>
@@ -4214,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>102</v>
       </c>
@@ -4249,7 +4305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>103</v>
       </c>
@@ -4286,8 +4342,11 @@
       <c r="L111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M111">
+        <v>45673</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>104</v>
       </c>

--- a/Eastern_Massachusetts_net.xlsx
+++ b/Eastern_Massachusetts_net.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008B0A95-C793-416E-8AC4-9B0E84314626}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364A9526-3B72-4CCE-963A-43B3BFF9A2AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,42 +428,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R91" sqref="R91"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="O91" sqref="O91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.5" style="3" customWidth="1"/>
     <col min="13" max="13" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>5</v>
       </c>
@@ -498,7 +498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
         <v>15</v>
@@ -534,7 +534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6</v>
       </c>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>7</v>
       </c>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>9</v>
       </c>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10</v>
       </c>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>11</v>
       </c>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>12</v>
       </c>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>13</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>14</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>15</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>16</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>17</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>18</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>19</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>20</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>21</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>22</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>23</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>24</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>25</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>26</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>27</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>28</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>29</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>30</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>31</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>32</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>33</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>34</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>35</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>36</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>37</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>38</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>39</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>40</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>41</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>42</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>43</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>44</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>45</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>46</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>47</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>48</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>49</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>50</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>51</v>
       </c>
@@ -2397,10 +2397,10 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <v>18459</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>52</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>53</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>34596</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>54</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>55</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>56</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>26855</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>57</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>19875</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>58</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>59</v>
       </c>
@@ -2701,10 +2701,10 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>24531</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>60</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>61</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>26581</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>62</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>63</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>64</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>36984</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>65</v>
       </c>
@@ -2929,10 +2929,10 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>17495</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>66</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>67</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>45965</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>68</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>69</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>70</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>71</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>72</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>73</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>74</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>75</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>76</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>77</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>54596</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>78</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>79</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>80</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>81</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>24596</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>82</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>83</v>
       </c>
@@ -3598,10 +3598,10 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>24596</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>84</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>85</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>86</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>87</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>88</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>89</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>14533</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>90</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>91</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>92</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>93</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>94</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>34588</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>95</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>14596</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>96</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>97</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>98</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>99</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>45966</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>100</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>101</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>102</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>103</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>45673</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>104</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>105</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>106</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>107</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>108</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>109</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>110</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>111</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>112</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>113</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>114</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>115</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>116</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>117</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>118</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>119</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>120</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>121</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>122</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>123</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>124</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>125</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>126</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>127</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>128</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>129</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>130</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>131</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>132</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>133</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>134</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>135</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>136</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>137</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>138</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>139</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>140</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>141</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>142</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>143</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>144</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>145</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>146</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>147</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>148</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>149</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>150</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>151</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>152</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>153</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>154</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>155</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>156</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>157</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>158</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>159</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>160</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>161</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>162</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>163</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>164</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>165</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>166</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>167</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>168</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>169</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>170</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>171</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>172</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>173</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>174</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>175</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>176</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>177</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>178</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>179</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>180</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>181</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>182</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>183</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>184</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>185</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>186</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>187</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>188</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>189</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>190</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>191</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>192</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>193</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>194</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>195</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>196</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>197</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>198</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>199</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>200</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>201</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>202</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>203</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>204</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>205</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>206</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>207</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>208</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>209</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>210</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>211</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>212</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>213</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>214</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>215</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>216</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>217</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>218</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>219</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>220</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>221</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>222</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>223</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>224</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>225</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>226</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>227</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>228</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>229</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>230</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>231</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>232</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>233</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>234</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>235</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>236</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>237</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>238</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>239</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>240</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>241</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>242</v>
       </c>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>243</v>
       </c>
@@ -9453,7 +9453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>244</v>
       </c>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>245</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>246</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>247</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>248</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>249</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>250</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>251</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>252</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>253</v>
       </c>
@@ -9821,7 +9821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>254</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>255</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>256</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>257</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>258</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271" s="2"/>
       <c r="B271" s="4"/>
       <c r="C271">
@@ -10024,7 +10024,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>29</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>49</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>50</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>51</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>52</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>53</v>
       </c>
@@ -10162,7 +10162,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>70</v>
       </c>
@@ -10185,7 +10185,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>73</v>
       </c>
@@ -10208,207 +10208,207 @@
         <v>100</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B280"/>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B281"/>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B282"/>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B283"/>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B284"/>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B285"/>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B286"/>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B287"/>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B288"/>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B289"/>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B290"/>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B291"/>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B292"/>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B293"/>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B294"/>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B295"/>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B296"/>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B297"/>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B298"/>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B299"/>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B300"/>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B301"/>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B302"/>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B303"/>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B304"/>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B305"/>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B306"/>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B307"/>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B308"/>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B309"/>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B310"/>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B311"/>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B312"/>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B313"/>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B314"/>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B315"/>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B316"/>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B317"/>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B318"/>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B319"/>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B320"/>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B321"/>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B322"/>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B323"/>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B324"/>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B325"/>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B326"/>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B327"/>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B328"/>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B329"/>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B330"/>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B331"/>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B332"/>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B333"/>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B334"/>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B335"/>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B336"/>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B337"/>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B338"/>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B339"/>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B340"/>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B341"/>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B342"/>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B343"/>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B344"/>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B345"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>